--- a/Assets/06.Table/PetPass.xlsx
+++ b/Assets/06.Table/PetPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7378F98-7F2A-4ACA-939F-4EC37F52D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B230E3-C160-4B22-A9B4-8490EBC9CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetPass" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,10 +604,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -621,7 +621,7 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -778,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -877,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -909,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1948,7 +1948,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
@@ -1956,19 +1956,19 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>7701</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>7702</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="3">
         <v>9044</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="3">
         <v>9043</v>
       </c>
@@ -2065,12 +2065,12 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
       <c r="F10" s="4"/>

--- a/Assets/06.Table/PetPass.xlsx
+++ b/Assets/06.Table/PetPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B230E3-C160-4B22-A9B4-8490EBC9CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42341F28-6CD4-416C-A68F-9D49E48B9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetPass" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -138,6 +138,51 @@
     <t>명상 소탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>petpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수 패스 (2) 재화 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_free1</t>
+  </si>
+  <si>
+    <t>p_free1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_ad1</t>
+  </si>
+  <si>
+    <t>p_ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +246,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFD0D0D0"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -224,12 +269,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -244,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,7 +329,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,11 +669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -621,7 +690,7 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +721,14 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -681,11 +756,17 @@
       <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -713,11 +794,17 @@
       <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -745,11 +832,17 @@
       <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -777,11 +870,17 @@
       <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -809,11 +908,17 @@
       <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -841,11 +946,17 @@
       <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -873,11 +984,17 @@
       <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -905,11 +1022,17 @@
       <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -937,11 +1060,17 @@
       <c r="I10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -969,11 +1098,17 @@
       <c r="I11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1001,11 +1136,17 @@
       <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1033,11 +1174,17 @@
       <c r="I13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1065,11 +1212,17 @@
       <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1097,11 +1250,17 @@
       <c r="I15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1129,11 +1288,17 @@
       <c r="I16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1161,11 +1326,17 @@
       <c r="I17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1193,11 +1364,17 @@
       <c r="I18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1225,11 +1402,17 @@
       <c r="I19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1257,11 +1440,17 @@
       <c r="I20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1289,11 +1478,17 @@
       <c r="I21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1321,11 +1516,17 @@
       <c r="I22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1353,11 +1554,17 @@
       <c r="I23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1385,11 +1592,17 @@
       <c r="I24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1417,11 +1630,17 @@
       <c r="I25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1449,11 +1668,17 @@
       <c r="I26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1481,11 +1706,17 @@
       <c r="I27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1513,11 +1744,17 @@
       <c r="I28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1545,11 +1782,17 @@
       <c r="I29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1577,11 +1820,17 @@
       <c r="I30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1609,11 +1858,17 @@
       <c r="I31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1641,11 +1896,17 @@
       <c r="I32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1673,11 +1934,17 @@
       <c r="I33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1705,11 +1972,17 @@
       <c r="I34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1737,11 +2010,17 @@
       <c r="I35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1769,11 +2048,17 @@
       <c r="I36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1801,11 +2086,17 @@
       <c r="I37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1833,11 +2124,17 @@
       <c r="I38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1865,11 +2162,17 @@
       <c r="I39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1897,40 +2200,1572 @@
       <c r="I40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
+      <c r="J40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="11">
         <v>200000000</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="10">
         <v>9044</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="10">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="10">
         <v>9044</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="12">
         <v>8</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>24</v>
+      <c r="H41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>39</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="C42" s="7">
+        <v>7703</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>7704</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="C43">
+        <v>9032</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E43">
+        <v>9032</v>
+      </c>
+      <c r="F43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="C44">
+        <v>9032</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E44">
+        <v>9032</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="C45">
+        <v>9032</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E45">
+        <v>9032</v>
+      </c>
+      <c r="F45" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="C46">
+        <v>9032</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E46">
+        <v>9032</v>
+      </c>
+      <c r="F46" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6">
+        <v>30000000</v>
+      </c>
+      <c r="C47">
+        <v>9032</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E47">
+        <v>9032</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6">
+        <v>35000000</v>
+      </c>
+      <c r="C48">
+        <v>9032</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E48">
+        <v>9032</v>
+      </c>
+      <c r="F48" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6">
+        <v>40000000</v>
+      </c>
+      <c r="C49">
+        <v>9032</v>
+      </c>
+      <c r="D49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E49">
+        <v>9032</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45000000</v>
+      </c>
+      <c r="C50">
+        <v>9032</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E50">
+        <v>9032</v>
+      </c>
+      <c r="F50" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C51">
+        <v>9033</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>9033</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51">
+        <v>9</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6">
+        <v>55000000</v>
+      </c>
+      <c r="C52">
+        <v>9032</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E52">
+        <v>9032</v>
+      </c>
+      <c r="F52" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
+        <v>60000000</v>
+      </c>
+      <c r="C53">
+        <v>9032</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E53">
+        <v>9032</v>
+      </c>
+      <c r="F53" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
+        <v>65000000</v>
+      </c>
+      <c r="C54">
+        <v>9032</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E54">
+        <v>9032</v>
+      </c>
+      <c r="F54" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6">
+        <v>70000000</v>
+      </c>
+      <c r="C55">
+        <v>9032</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E55">
+        <v>9032</v>
+      </c>
+      <c r="F55" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55">
+        <v>13</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
+        <v>75000000</v>
+      </c>
+      <c r="C56">
+        <v>9032</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E56">
+        <v>9032</v>
+      </c>
+      <c r="F56" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>80000000</v>
+      </c>
+      <c r="C57">
+        <v>9032</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E57">
+        <v>9032</v>
+      </c>
+      <c r="F57" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57">
+        <v>15</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>85000000</v>
+      </c>
+      <c r="C58">
+        <v>9032</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E58">
+        <v>9032</v>
+      </c>
+      <c r="F58" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>90000000</v>
+      </c>
+      <c r="C59">
+        <v>9032</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E59">
+        <v>9032</v>
+      </c>
+      <c r="F59" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
+        <v>95000000</v>
+      </c>
+      <c r="C60">
+        <v>9032</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E60">
+        <v>9032</v>
+      </c>
+      <c r="F60" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60">
+        <v>18</v>
+      </c>
+      <c r="L60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="C61">
+        <v>9033</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>9033</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61">
+        <v>19</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
+        <v>105000000</v>
+      </c>
+      <c r="C62">
+        <v>9032</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E62">
+        <v>9032</v>
+      </c>
+      <c r="F62" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6">
+        <v>110000000</v>
+      </c>
+      <c r="C63">
+        <v>9032</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E63">
+        <v>9032</v>
+      </c>
+      <c r="F63" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63">
+        <v>21</v>
+      </c>
+      <c r="L63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6">
+        <v>115000000</v>
+      </c>
+      <c r="C64">
+        <v>9032</v>
+      </c>
+      <c r="D64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E64">
+        <v>9032</v>
+      </c>
+      <c r="F64" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6">
+        <v>120000000</v>
+      </c>
+      <c r="C65">
+        <v>9032</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E65">
+        <v>9032</v>
+      </c>
+      <c r="F65" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6">
+        <v>125000000</v>
+      </c>
+      <c r="C66">
+        <v>9032</v>
+      </c>
+      <c r="D66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E66">
+        <v>9032</v>
+      </c>
+      <c r="F66" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6">
+        <v>130000000</v>
+      </c>
+      <c r="C67">
+        <v>9032</v>
+      </c>
+      <c r="D67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E67">
+        <v>9032</v>
+      </c>
+      <c r="F67" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6">
+        <v>135000000</v>
+      </c>
+      <c r="C68">
+        <v>9032</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E68">
+        <v>9032</v>
+      </c>
+      <c r="F68" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="6">
+        <v>140000000</v>
+      </c>
+      <c r="C69">
+        <v>9032</v>
+      </c>
+      <c r="D69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E69">
+        <v>9032</v>
+      </c>
+      <c r="F69" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6">
+        <v>145000000</v>
+      </c>
+      <c r="C70">
+        <v>9032</v>
+      </c>
+      <c r="D70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E70">
+        <v>9032</v>
+      </c>
+      <c r="F70" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="C71">
+        <v>9033</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>9033</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71">
+        <v>29</v>
+      </c>
+      <c r="L71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="6">
+        <v>155000000</v>
+      </c>
+      <c r="C72">
+        <v>9032</v>
+      </c>
+      <c r="D72" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <v>9032</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72">
+        <v>30</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6">
+        <v>160000000</v>
+      </c>
+      <c r="C73">
+        <v>9032</v>
+      </c>
+      <c r="D73" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E73">
+        <v>9032</v>
+      </c>
+      <c r="F73" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73">
+        <v>31</v>
+      </c>
+      <c r="L73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6">
+        <v>165000000</v>
+      </c>
+      <c r="C74">
+        <v>9032</v>
+      </c>
+      <c r="D74" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E74">
+        <v>9032</v>
+      </c>
+      <c r="F74" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6">
+        <v>170000000</v>
+      </c>
+      <c r="C75">
+        <v>9032</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E75">
+        <v>9032</v>
+      </c>
+      <c r="F75" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6">
+        <v>175000000</v>
+      </c>
+      <c r="C76">
+        <v>9032</v>
+      </c>
+      <c r="D76" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E76">
+        <v>9032</v>
+      </c>
+      <c r="F76" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76">
+        <v>34</v>
+      </c>
+      <c r="L76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="6">
+        <v>180000000</v>
+      </c>
+      <c r="C77">
+        <v>9032</v>
+      </c>
+      <c r="D77" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E77">
+        <v>9032</v>
+      </c>
+      <c r="F77" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77">
+        <v>35</v>
+      </c>
+      <c r="L77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="6">
+        <v>185000000</v>
+      </c>
+      <c r="C78">
+        <v>9032</v>
+      </c>
+      <c r="D78" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E78">
+        <v>9032</v>
+      </c>
+      <c r="F78" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78">
+        <v>36</v>
+      </c>
+      <c r="L78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6">
+        <v>190000000</v>
+      </c>
+      <c r="C79">
+        <v>9032</v>
+      </c>
+      <c r="D79" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E79">
+        <v>9032</v>
+      </c>
+      <c r="F79" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79">
+        <v>37</v>
+      </c>
+      <c r="L79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6">
+        <v>195000000</v>
+      </c>
+      <c r="C80">
+        <v>9032</v>
+      </c>
+      <c r="D80" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E80">
+        <v>9032</v>
+      </c>
+      <c r="F80" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80">
+        <v>38</v>
+      </c>
+      <c r="L80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="C81">
+        <v>9033</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>9033</v>
+      </c>
+      <c r="F81" s="1">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81">
+        <v>39</v>
+      </c>
+      <c r="L81" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1942,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F40FC7F-F340-46C1-8BD2-9A18E506EF15}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1957,16 +3792,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -2075,10 +3910,121 @@
       <c r="D10" s="4"/>
       <c r="F10" s="4"/>
     </row>
+    <row r="11" spans="2:6">
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3">
+        <v>7703</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF(PetPass!C:C,'보상 측정'!B14,PetPass!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUMIF(PetPass!E:E,'보상 측정'!B14,PetPass!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM(D14:E14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3">
+        <v>7704</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF(PetPass!C:C,'보상 측정'!B15,PetPass!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUMIF(PetPass!E:E,'보상 측정'!B15,PetPass!F:F)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM(D15:E15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3">
+        <v>9033</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF(PetPass!C:C,'보상 측정'!B16,PetPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUMIF(PetPass!E:E,'보상 측정'!B16,PetPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM(D16:E16)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
+        <v>9032</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF(PetPass!C:C,'보상 측정'!B17,PetPass!D:D)</f>
+        <v>3500000</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUMIF(PetPass!E:E,'보상 측정'!B17,PetPass!F:F)</f>
+        <v>7000000</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM(D17:E17)</f>
+        <v>10500000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PetPass.xlsx
+++ b/Assets/06.Table/PetPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42341F28-6CD4-416C-A68F-9D49E48B9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04212D3B-546F-43EF-AF7D-6682BB6FAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="PetPass" sheetId="1" r:id="rId1"/>
     <sheet name="보상 측정" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PetPass!$C$1:$C$1</definedName>
   </definedNames>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -183,12 +186,53 @@
     <t>pass2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>p_free2</t>
+  </si>
+  <si>
+    <t>p_free2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_ad2</t>
+  </si>
+  <si>
+    <t>p_ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petpass2</t>
+  </si>
+  <si>
+    <t>petpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수 패스 (3) 재화 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +414,1750 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PetPass"/>
+      <sheetName val="보상 측정"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>reward1</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>reward1_value</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>reward2</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>reward2_value</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>7701</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2">
+            <v>7702</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>9043</v>
+          </cell>
+          <cell r="D3">
+            <v>20000</v>
+          </cell>
+          <cell r="E3">
+            <v>9043</v>
+          </cell>
+          <cell r="F3">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>9043</v>
+          </cell>
+          <cell r="D4">
+            <v>20000</v>
+          </cell>
+          <cell r="E4">
+            <v>9043</v>
+          </cell>
+          <cell r="F4">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>9043</v>
+          </cell>
+          <cell r="D5">
+            <v>20000</v>
+          </cell>
+          <cell r="E5">
+            <v>9043</v>
+          </cell>
+          <cell r="F5">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>9043</v>
+          </cell>
+          <cell r="D6">
+            <v>20000</v>
+          </cell>
+          <cell r="E6">
+            <v>9043</v>
+          </cell>
+          <cell r="F6">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>9043</v>
+          </cell>
+          <cell r="D7">
+            <v>20000</v>
+          </cell>
+          <cell r="E7">
+            <v>9043</v>
+          </cell>
+          <cell r="F7">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9043</v>
+          </cell>
+          <cell r="D8">
+            <v>20000</v>
+          </cell>
+          <cell r="E8">
+            <v>9043</v>
+          </cell>
+          <cell r="F8">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>9043</v>
+          </cell>
+          <cell r="D9">
+            <v>20000</v>
+          </cell>
+          <cell r="E9">
+            <v>9043</v>
+          </cell>
+          <cell r="F9">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>9043</v>
+          </cell>
+          <cell r="D10">
+            <v>20000</v>
+          </cell>
+          <cell r="E10">
+            <v>9043</v>
+          </cell>
+          <cell r="F10">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>9044</v>
+          </cell>
+          <cell r="D11">
+            <v>2</v>
+          </cell>
+          <cell r="E11">
+            <v>9044</v>
+          </cell>
+          <cell r="F11">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>9043</v>
+          </cell>
+          <cell r="D12">
+            <v>20000</v>
+          </cell>
+          <cell r="E12">
+            <v>9043</v>
+          </cell>
+          <cell r="F12">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>9043</v>
+          </cell>
+          <cell r="D13">
+            <v>20000</v>
+          </cell>
+          <cell r="E13">
+            <v>9043</v>
+          </cell>
+          <cell r="F13">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>9043</v>
+          </cell>
+          <cell r="D14">
+            <v>20000</v>
+          </cell>
+          <cell r="E14">
+            <v>9043</v>
+          </cell>
+          <cell r="F14">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>9043</v>
+          </cell>
+          <cell r="D15">
+            <v>20000</v>
+          </cell>
+          <cell r="E15">
+            <v>9043</v>
+          </cell>
+          <cell r="F15">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>9043</v>
+          </cell>
+          <cell r="D16">
+            <v>20000</v>
+          </cell>
+          <cell r="E16">
+            <v>9043</v>
+          </cell>
+          <cell r="F16">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>9043</v>
+          </cell>
+          <cell r="D17">
+            <v>20000</v>
+          </cell>
+          <cell r="E17">
+            <v>9043</v>
+          </cell>
+          <cell r="F17">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>9043</v>
+          </cell>
+          <cell r="D18">
+            <v>20000</v>
+          </cell>
+          <cell r="E18">
+            <v>9043</v>
+          </cell>
+          <cell r="F18">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>9043</v>
+          </cell>
+          <cell r="D19">
+            <v>20000</v>
+          </cell>
+          <cell r="E19">
+            <v>9043</v>
+          </cell>
+          <cell r="F19">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>9043</v>
+          </cell>
+          <cell r="D20">
+            <v>20000</v>
+          </cell>
+          <cell r="E20">
+            <v>9043</v>
+          </cell>
+          <cell r="F20">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>9044</v>
+          </cell>
+          <cell r="D21">
+            <v>2</v>
+          </cell>
+          <cell r="E21">
+            <v>9044</v>
+          </cell>
+          <cell r="F21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>9043</v>
+          </cell>
+          <cell r="D22">
+            <v>20000</v>
+          </cell>
+          <cell r="E22">
+            <v>9043</v>
+          </cell>
+          <cell r="F22">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>9043</v>
+          </cell>
+          <cell r="D23">
+            <v>20000</v>
+          </cell>
+          <cell r="E23">
+            <v>9043</v>
+          </cell>
+          <cell r="F23">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>9043</v>
+          </cell>
+          <cell r="D24">
+            <v>20000</v>
+          </cell>
+          <cell r="E24">
+            <v>9043</v>
+          </cell>
+          <cell r="F24">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>9043</v>
+          </cell>
+          <cell r="D25">
+            <v>20000</v>
+          </cell>
+          <cell r="E25">
+            <v>9043</v>
+          </cell>
+          <cell r="F25">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>9043</v>
+          </cell>
+          <cell r="D26">
+            <v>20000</v>
+          </cell>
+          <cell r="E26">
+            <v>9043</v>
+          </cell>
+          <cell r="F26">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>9043</v>
+          </cell>
+          <cell r="D27">
+            <v>20000</v>
+          </cell>
+          <cell r="E27">
+            <v>9043</v>
+          </cell>
+          <cell r="F27">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>9043</v>
+          </cell>
+          <cell r="D28">
+            <v>20000</v>
+          </cell>
+          <cell r="E28">
+            <v>9043</v>
+          </cell>
+          <cell r="F28">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>9043</v>
+          </cell>
+          <cell r="D29">
+            <v>20000</v>
+          </cell>
+          <cell r="E29">
+            <v>9043</v>
+          </cell>
+          <cell r="F29">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>9043</v>
+          </cell>
+          <cell r="D30">
+            <v>20000</v>
+          </cell>
+          <cell r="E30">
+            <v>9043</v>
+          </cell>
+          <cell r="F30">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>9044</v>
+          </cell>
+          <cell r="D31">
+            <v>2</v>
+          </cell>
+          <cell r="E31">
+            <v>9044</v>
+          </cell>
+          <cell r="F31">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>9043</v>
+          </cell>
+          <cell r="D32">
+            <v>20000</v>
+          </cell>
+          <cell r="E32">
+            <v>9043</v>
+          </cell>
+          <cell r="F32">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>9043</v>
+          </cell>
+          <cell r="D33">
+            <v>20000</v>
+          </cell>
+          <cell r="E33">
+            <v>9043</v>
+          </cell>
+          <cell r="F33">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>9043</v>
+          </cell>
+          <cell r="D34">
+            <v>20000</v>
+          </cell>
+          <cell r="E34">
+            <v>9043</v>
+          </cell>
+          <cell r="F34">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9043</v>
+          </cell>
+          <cell r="D35">
+            <v>20000</v>
+          </cell>
+          <cell r="E35">
+            <v>9043</v>
+          </cell>
+          <cell r="F35">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>9043</v>
+          </cell>
+          <cell r="D36">
+            <v>20000</v>
+          </cell>
+          <cell r="E36">
+            <v>9043</v>
+          </cell>
+          <cell r="F36">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>9043</v>
+          </cell>
+          <cell r="D37">
+            <v>20000</v>
+          </cell>
+          <cell r="E37">
+            <v>9043</v>
+          </cell>
+          <cell r="F37">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>9043</v>
+          </cell>
+          <cell r="D38">
+            <v>20000</v>
+          </cell>
+          <cell r="E38">
+            <v>9043</v>
+          </cell>
+          <cell r="F38">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>9043</v>
+          </cell>
+          <cell r="D39">
+            <v>20000</v>
+          </cell>
+          <cell r="E39">
+            <v>9043</v>
+          </cell>
+          <cell r="F39">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>9043</v>
+          </cell>
+          <cell r="D40">
+            <v>20000</v>
+          </cell>
+          <cell r="E40">
+            <v>9043</v>
+          </cell>
+          <cell r="F40">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9044</v>
+          </cell>
+          <cell r="D41">
+            <v>4</v>
+          </cell>
+          <cell r="E41">
+            <v>9044</v>
+          </cell>
+          <cell r="F41">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>7703</v>
+          </cell>
+          <cell r="D42">
+            <v>1</v>
+          </cell>
+          <cell r="E42">
+            <v>7704</v>
+          </cell>
+          <cell r="F42">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>9032</v>
+          </cell>
+          <cell r="D43">
+            <v>100000</v>
+          </cell>
+          <cell r="E43">
+            <v>9032</v>
+          </cell>
+          <cell r="F43">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>9032</v>
+          </cell>
+          <cell r="D44">
+            <v>100000</v>
+          </cell>
+          <cell r="E44">
+            <v>9032</v>
+          </cell>
+          <cell r="F44">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>9032</v>
+          </cell>
+          <cell r="D45">
+            <v>100000</v>
+          </cell>
+          <cell r="E45">
+            <v>9032</v>
+          </cell>
+          <cell r="F45">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>9032</v>
+          </cell>
+          <cell r="D46">
+            <v>100000</v>
+          </cell>
+          <cell r="E46">
+            <v>9032</v>
+          </cell>
+          <cell r="F46">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>9032</v>
+          </cell>
+          <cell r="D47">
+            <v>100000</v>
+          </cell>
+          <cell r="E47">
+            <v>9032</v>
+          </cell>
+          <cell r="F47">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>9032</v>
+          </cell>
+          <cell r="D48">
+            <v>100000</v>
+          </cell>
+          <cell r="E48">
+            <v>9032</v>
+          </cell>
+          <cell r="F48">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>9032</v>
+          </cell>
+          <cell r="D49">
+            <v>100000</v>
+          </cell>
+          <cell r="E49">
+            <v>9032</v>
+          </cell>
+          <cell r="F49">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>9032</v>
+          </cell>
+          <cell r="D50">
+            <v>100000</v>
+          </cell>
+          <cell r="E50">
+            <v>9032</v>
+          </cell>
+          <cell r="F50">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>9033</v>
+          </cell>
+          <cell r="D51">
+            <v>2</v>
+          </cell>
+          <cell r="E51">
+            <v>9033</v>
+          </cell>
+          <cell r="F51">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>9032</v>
+          </cell>
+          <cell r="D52">
+            <v>100000</v>
+          </cell>
+          <cell r="E52">
+            <v>9032</v>
+          </cell>
+          <cell r="F52">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>9032</v>
+          </cell>
+          <cell r="D53">
+            <v>100000</v>
+          </cell>
+          <cell r="E53">
+            <v>9032</v>
+          </cell>
+          <cell r="F53">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>9032</v>
+          </cell>
+          <cell r="D54">
+            <v>100000</v>
+          </cell>
+          <cell r="E54">
+            <v>9032</v>
+          </cell>
+          <cell r="F54">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>9032</v>
+          </cell>
+          <cell r="D55">
+            <v>100000</v>
+          </cell>
+          <cell r="E55">
+            <v>9032</v>
+          </cell>
+          <cell r="F55">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>9032</v>
+          </cell>
+          <cell r="D56">
+            <v>100000</v>
+          </cell>
+          <cell r="E56">
+            <v>9032</v>
+          </cell>
+          <cell r="F56">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>9032</v>
+          </cell>
+          <cell r="D57">
+            <v>100000</v>
+          </cell>
+          <cell r="E57">
+            <v>9032</v>
+          </cell>
+          <cell r="F57">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>9032</v>
+          </cell>
+          <cell r="D58">
+            <v>100000</v>
+          </cell>
+          <cell r="E58">
+            <v>9032</v>
+          </cell>
+          <cell r="F58">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>9032</v>
+          </cell>
+          <cell r="D59">
+            <v>100000</v>
+          </cell>
+          <cell r="E59">
+            <v>9032</v>
+          </cell>
+          <cell r="F59">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>9032</v>
+          </cell>
+          <cell r="D60">
+            <v>100000</v>
+          </cell>
+          <cell r="E60">
+            <v>9032</v>
+          </cell>
+          <cell r="F60">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>9033</v>
+          </cell>
+          <cell r="D61">
+            <v>2</v>
+          </cell>
+          <cell r="E61">
+            <v>9033</v>
+          </cell>
+          <cell r="F61">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>9032</v>
+          </cell>
+          <cell r="D62">
+            <v>100000</v>
+          </cell>
+          <cell r="E62">
+            <v>9032</v>
+          </cell>
+          <cell r="F62">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>9032</v>
+          </cell>
+          <cell r="D63">
+            <v>100000</v>
+          </cell>
+          <cell r="E63">
+            <v>9032</v>
+          </cell>
+          <cell r="F63">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>9032</v>
+          </cell>
+          <cell r="D64">
+            <v>100000</v>
+          </cell>
+          <cell r="E64">
+            <v>9032</v>
+          </cell>
+          <cell r="F64">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>9032</v>
+          </cell>
+          <cell r="D65">
+            <v>100000</v>
+          </cell>
+          <cell r="E65">
+            <v>9032</v>
+          </cell>
+          <cell r="F65">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>9032</v>
+          </cell>
+          <cell r="D66">
+            <v>100000</v>
+          </cell>
+          <cell r="E66">
+            <v>9032</v>
+          </cell>
+          <cell r="F66">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>9032</v>
+          </cell>
+          <cell r="D67">
+            <v>100000</v>
+          </cell>
+          <cell r="E67">
+            <v>9032</v>
+          </cell>
+          <cell r="F67">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>9032</v>
+          </cell>
+          <cell r="D68">
+            <v>100000</v>
+          </cell>
+          <cell r="E68">
+            <v>9032</v>
+          </cell>
+          <cell r="F68">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>9032</v>
+          </cell>
+          <cell r="D69">
+            <v>100000</v>
+          </cell>
+          <cell r="E69">
+            <v>9032</v>
+          </cell>
+          <cell r="F69">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>9032</v>
+          </cell>
+          <cell r="D70">
+            <v>100000</v>
+          </cell>
+          <cell r="E70">
+            <v>9032</v>
+          </cell>
+          <cell r="F70">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>9033</v>
+          </cell>
+          <cell r="D71">
+            <v>2</v>
+          </cell>
+          <cell r="E71">
+            <v>9033</v>
+          </cell>
+          <cell r="F71">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>9032</v>
+          </cell>
+          <cell r="D72">
+            <v>100000</v>
+          </cell>
+          <cell r="E72">
+            <v>9032</v>
+          </cell>
+          <cell r="F72">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>9032</v>
+          </cell>
+          <cell r="D73">
+            <v>100000</v>
+          </cell>
+          <cell r="E73">
+            <v>9032</v>
+          </cell>
+          <cell r="F73">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>9032</v>
+          </cell>
+          <cell r="D74">
+            <v>100000</v>
+          </cell>
+          <cell r="E74">
+            <v>9032</v>
+          </cell>
+          <cell r="F74">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>9032</v>
+          </cell>
+          <cell r="D75">
+            <v>100000</v>
+          </cell>
+          <cell r="E75">
+            <v>9032</v>
+          </cell>
+          <cell r="F75">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>9032</v>
+          </cell>
+          <cell r="D76">
+            <v>100000</v>
+          </cell>
+          <cell r="E76">
+            <v>9032</v>
+          </cell>
+          <cell r="F76">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>9032</v>
+          </cell>
+          <cell r="D77">
+            <v>100000</v>
+          </cell>
+          <cell r="E77">
+            <v>9032</v>
+          </cell>
+          <cell r="F77">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>9032</v>
+          </cell>
+          <cell r="D78">
+            <v>100000</v>
+          </cell>
+          <cell r="E78">
+            <v>9032</v>
+          </cell>
+          <cell r="F78">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>9032</v>
+          </cell>
+          <cell r="D79">
+            <v>100000</v>
+          </cell>
+          <cell r="E79">
+            <v>9032</v>
+          </cell>
+          <cell r="F79">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>9032</v>
+          </cell>
+          <cell r="D80">
+            <v>100000</v>
+          </cell>
+          <cell r="E80">
+            <v>9032</v>
+          </cell>
+          <cell r="F80">
+            <v>200000</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>9033</v>
+          </cell>
+          <cell r="D81">
+            <v>4</v>
+          </cell>
+          <cell r="E81">
+            <v>9033</v>
+          </cell>
+          <cell r="F81">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>7705</v>
+          </cell>
+          <cell r="D82">
+            <v>1</v>
+          </cell>
+          <cell r="E82">
+            <v>7706</v>
+          </cell>
+          <cell r="F82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>9016</v>
+          </cell>
+          <cell r="D83">
+            <v>200</v>
+          </cell>
+          <cell r="E83">
+            <v>9016</v>
+          </cell>
+          <cell r="F83">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>9016</v>
+          </cell>
+          <cell r="D84">
+            <v>200</v>
+          </cell>
+          <cell r="E84">
+            <v>9016</v>
+          </cell>
+          <cell r="F84">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>9016</v>
+          </cell>
+          <cell r="D85">
+            <v>200</v>
+          </cell>
+          <cell r="E85">
+            <v>9016</v>
+          </cell>
+          <cell r="F85">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>9016</v>
+          </cell>
+          <cell r="D86">
+            <v>200</v>
+          </cell>
+          <cell r="E86">
+            <v>9016</v>
+          </cell>
+          <cell r="F86">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>9016</v>
+          </cell>
+          <cell r="D87">
+            <v>200</v>
+          </cell>
+          <cell r="E87">
+            <v>9016</v>
+          </cell>
+          <cell r="F87">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>9016</v>
+          </cell>
+          <cell r="D88">
+            <v>200</v>
+          </cell>
+          <cell r="E88">
+            <v>9016</v>
+          </cell>
+          <cell r="F88">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>9016</v>
+          </cell>
+          <cell r="D89">
+            <v>200</v>
+          </cell>
+          <cell r="E89">
+            <v>9016</v>
+          </cell>
+          <cell r="F89">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>9016</v>
+          </cell>
+          <cell r="D90">
+            <v>200</v>
+          </cell>
+          <cell r="E90">
+            <v>9016</v>
+          </cell>
+          <cell r="F90">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>9017</v>
+          </cell>
+          <cell r="D91">
+            <v>5</v>
+          </cell>
+          <cell r="E91">
+            <v>9017</v>
+          </cell>
+          <cell r="F91">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>9026</v>
+          </cell>
+          <cell r="D92">
+            <v>3000</v>
+          </cell>
+          <cell r="E92">
+            <v>9026</v>
+          </cell>
+          <cell r="F92">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>9026</v>
+          </cell>
+          <cell r="D93">
+            <v>3000</v>
+          </cell>
+          <cell r="E93">
+            <v>9026</v>
+          </cell>
+          <cell r="F93">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>9026</v>
+          </cell>
+          <cell r="D94">
+            <v>3000</v>
+          </cell>
+          <cell r="E94">
+            <v>9026</v>
+          </cell>
+          <cell r="F94">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>9026</v>
+          </cell>
+          <cell r="D95">
+            <v>3000</v>
+          </cell>
+          <cell r="E95">
+            <v>9026</v>
+          </cell>
+          <cell r="F95">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>9026</v>
+          </cell>
+          <cell r="D96">
+            <v>3000</v>
+          </cell>
+          <cell r="E96">
+            <v>9026</v>
+          </cell>
+          <cell r="F96">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>9026</v>
+          </cell>
+          <cell r="D97">
+            <v>3000</v>
+          </cell>
+          <cell r="E97">
+            <v>9026</v>
+          </cell>
+          <cell r="F97">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>9026</v>
+          </cell>
+          <cell r="D98">
+            <v>3000</v>
+          </cell>
+          <cell r="E98">
+            <v>9026</v>
+          </cell>
+          <cell r="F98">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>9026</v>
+          </cell>
+          <cell r="D99">
+            <v>3000</v>
+          </cell>
+          <cell r="E99">
+            <v>9026</v>
+          </cell>
+          <cell r="F99">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>9026</v>
+          </cell>
+          <cell r="D100">
+            <v>3000</v>
+          </cell>
+          <cell r="E100">
+            <v>9026</v>
+          </cell>
+          <cell r="F100">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>9027</v>
+          </cell>
+          <cell r="D101">
+            <v>5</v>
+          </cell>
+          <cell r="E101">
+            <v>9027</v>
+          </cell>
+          <cell r="F101">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>9016</v>
+          </cell>
+          <cell r="D102">
+            <v>200</v>
+          </cell>
+          <cell r="E102">
+            <v>9016</v>
+          </cell>
+          <cell r="F102">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>9016</v>
+          </cell>
+          <cell r="D103">
+            <v>200</v>
+          </cell>
+          <cell r="E103">
+            <v>9016</v>
+          </cell>
+          <cell r="F103">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>9016</v>
+          </cell>
+          <cell r="D104">
+            <v>200</v>
+          </cell>
+          <cell r="E104">
+            <v>9016</v>
+          </cell>
+          <cell r="F104">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>9016</v>
+          </cell>
+          <cell r="D105">
+            <v>200</v>
+          </cell>
+          <cell r="E105">
+            <v>9016</v>
+          </cell>
+          <cell r="F105">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106">
+            <v>9016</v>
+          </cell>
+          <cell r="D106">
+            <v>200</v>
+          </cell>
+          <cell r="E106">
+            <v>9016</v>
+          </cell>
+          <cell r="F106">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107">
+            <v>9016</v>
+          </cell>
+          <cell r="D107">
+            <v>200</v>
+          </cell>
+          <cell r="E107">
+            <v>9016</v>
+          </cell>
+          <cell r="F107">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108">
+            <v>9016</v>
+          </cell>
+          <cell r="D108">
+            <v>200</v>
+          </cell>
+          <cell r="E108">
+            <v>9016</v>
+          </cell>
+          <cell r="F108">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109">
+            <v>9016</v>
+          </cell>
+          <cell r="D109">
+            <v>200</v>
+          </cell>
+          <cell r="E109">
+            <v>9016</v>
+          </cell>
+          <cell r="F109">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>9016</v>
+          </cell>
+          <cell r="D110">
+            <v>200</v>
+          </cell>
+          <cell r="E110">
+            <v>9016</v>
+          </cell>
+          <cell r="F110">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>9017</v>
+          </cell>
+          <cell r="D111">
+            <v>5</v>
+          </cell>
+          <cell r="E111">
+            <v>9017</v>
+          </cell>
+          <cell r="F111">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>9026</v>
+          </cell>
+          <cell r="D112">
+            <v>3000</v>
+          </cell>
+          <cell r="E112">
+            <v>9026</v>
+          </cell>
+          <cell r="F112">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>9026</v>
+          </cell>
+          <cell r="D113">
+            <v>3000</v>
+          </cell>
+          <cell r="E113">
+            <v>9026</v>
+          </cell>
+          <cell r="F113">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>9026</v>
+          </cell>
+          <cell r="D114">
+            <v>3000</v>
+          </cell>
+          <cell r="E114">
+            <v>9026</v>
+          </cell>
+          <cell r="F114">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>9026</v>
+          </cell>
+          <cell r="D115">
+            <v>3000</v>
+          </cell>
+          <cell r="E115">
+            <v>9026</v>
+          </cell>
+          <cell r="F115">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>9026</v>
+          </cell>
+          <cell r="D116">
+            <v>3000</v>
+          </cell>
+          <cell r="E116">
+            <v>9026</v>
+          </cell>
+          <cell r="F116">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>9026</v>
+          </cell>
+          <cell r="D117">
+            <v>3000</v>
+          </cell>
+          <cell r="E117">
+            <v>9026</v>
+          </cell>
+          <cell r="F117">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>9026</v>
+          </cell>
+          <cell r="D118">
+            <v>3000</v>
+          </cell>
+          <cell r="E118">
+            <v>9026</v>
+          </cell>
+          <cell r="F118">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119">
+            <v>9026</v>
+          </cell>
+          <cell r="D119">
+            <v>3000</v>
+          </cell>
+          <cell r="E119">
+            <v>9026</v>
+          </cell>
+          <cell r="F119">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120">
+            <v>9026</v>
+          </cell>
+          <cell r="D120">
+            <v>3000</v>
+          </cell>
+          <cell r="E120">
+            <v>9026</v>
+          </cell>
+          <cell r="F120">
+            <v>15000</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121">
+            <v>9027</v>
+          </cell>
+          <cell r="D121">
+            <v>5</v>
+          </cell>
+          <cell r="E121">
+            <v>9027</v>
+          </cell>
+          <cell r="F121">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="B22">
+            <v>7705</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>7706</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>9016</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>9017</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>9026</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>9027</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,14 +2457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -690,7 +2478,7 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +2516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -766,7 +2554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -804,7 +2592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -842,7 +2630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -880,7 +2668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -918,7 +2706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -956,7 +2744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -994,7 +2782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1032,7 +2820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1070,7 +2858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1108,7 +2896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1146,7 +2934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1184,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1222,7 +3010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1260,7 +3048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1298,7 +3086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1336,7 +3124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1374,7 +3162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1412,7 +3200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1450,7 +3238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1488,7 +3276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1526,7 +3314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1564,7 +3352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1602,7 +3390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1640,7 +3428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1678,7 +3466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1716,7 +3504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1754,7 +3542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1792,7 +3580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1830,7 +3618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1868,7 +3656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1906,7 +3694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1944,7 +3732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1982,7 +3770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2020,7 +3808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2058,7 +3846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2096,7 +3884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2134,7 +3922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2172,7 +3960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2210,7 +3998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.25" thickBot="1">
+    <row r="41" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -2248,7 +4036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2286,7 +4074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2324,7 +4112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2362,7 +4150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2400,7 +4188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2438,7 +4226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2476,7 +4264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2514,7 +4302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2552,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2590,7 +4378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2628,7 +4416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2666,7 +4454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2704,7 +4492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2742,7 +4530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2780,7 +4568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2818,7 +4606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2856,7 +4644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2894,7 +4682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2932,7 +4720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2970,7 +4758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3008,7 +4796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3046,7 +4834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3084,7 +4872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3122,7 +4910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3160,7 +4948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3198,7 +4986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3236,7 +5024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3274,7 +5062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3312,7 +5100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3350,7 +5138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3388,7 +5176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3426,7 +5214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3464,7 +5252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3502,7 +5290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3540,7 +5328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3578,7 +5366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3616,7 +5404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3654,7 +5442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3692,7 +5480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3730,41 +5518,1561 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81">
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="10">
         <v>79</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="11">
         <v>200000000</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="10">
         <v>9033</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="10">
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="10">
         <v>9033</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="12">
         <v>8</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J81" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81">
+      <c r="J81" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="10">
         <v>39</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="C82" s="7">
+        <v>7705</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7">
+        <v>7706</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="C83">
+        <v>9016</v>
+      </c>
+      <c r="D83" s="1">
+        <v>200</v>
+      </c>
+      <c r="E83">
+        <v>9016</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="C84">
+        <v>9016</v>
+      </c>
+      <c r="D84" s="1">
+        <v>200</v>
+      </c>
+      <c r="E84">
+        <v>9016</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="C85">
+        <v>9016</v>
+      </c>
+      <c r="D85" s="1">
+        <v>200</v>
+      </c>
+      <c r="E85">
+        <v>9016</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="C86">
+        <v>9016</v>
+      </c>
+      <c r="D86" s="1">
+        <v>200</v>
+      </c>
+      <c r="E86">
+        <v>9016</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="6">
+        <v>30000000</v>
+      </c>
+      <c r="C87">
+        <v>9016</v>
+      </c>
+      <c r="D87" s="1">
+        <v>200</v>
+      </c>
+      <c r="E87">
+        <v>9016</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="6">
+        <v>35000000</v>
+      </c>
+      <c r="C88">
+        <v>9016</v>
+      </c>
+      <c r="D88" s="1">
+        <v>200</v>
+      </c>
+      <c r="E88">
+        <v>9016</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>40000000</v>
+      </c>
+      <c r="C89">
+        <v>9016</v>
+      </c>
+      <c r="D89" s="1">
+        <v>200</v>
+      </c>
+      <c r="E89">
+        <v>9016</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>45000000</v>
+      </c>
+      <c r="C90">
+        <v>9016</v>
+      </c>
+      <c r="D90" s="1">
+        <v>200</v>
+      </c>
+      <c r="E90">
+        <v>9016</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90">
+        <v>8</v>
+      </c>
+      <c r="L90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C91">
+        <v>9017</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>9017</v>
+      </c>
+      <c r="F91" s="1">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6">
+        <v>55000000</v>
+      </c>
+      <c r="C92">
+        <v>9026</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E92">
+        <v>9026</v>
+      </c>
+      <c r="F92" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="6">
+        <v>60000000</v>
+      </c>
+      <c r="C93">
+        <v>9026</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E93">
+        <v>9026</v>
+      </c>
+      <c r="F93" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="6">
+        <v>65000000</v>
+      </c>
+      <c r="C94">
+        <v>9026</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E94">
+        <v>9026</v>
+      </c>
+      <c r="F94" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="6">
+        <v>70000000</v>
+      </c>
+      <c r="C95">
+        <v>9026</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E95">
+        <v>9026</v>
+      </c>
+      <c r="F95" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="6">
+        <v>75000000</v>
+      </c>
+      <c r="C96">
+        <v>9026</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E96">
+        <v>9026</v>
+      </c>
+      <c r="F96" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="6">
+        <v>80000000</v>
+      </c>
+      <c r="C97">
+        <v>9026</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E97">
+        <v>9026</v>
+      </c>
+      <c r="F97" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97">
+        <v>15</v>
+      </c>
+      <c r="L97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="6">
+        <v>85000000</v>
+      </c>
+      <c r="C98">
+        <v>9026</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E98">
+        <v>9026</v>
+      </c>
+      <c r="F98" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98">
+        <v>16</v>
+      </c>
+      <c r="L98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6">
+        <v>90000000</v>
+      </c>
+      <c r="C99">
+        <v>9026</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E99">
+        <v>9026</v>
+      </c>
+      <c r="F99" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>43</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99">
+        <v>17</v>
+      </c>
+      <c r="L99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="6">
+        <v>95000000</v>
+      </c>
+      <c r="C100">
+        <v>9026</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E100">
+        <v>9026</v>
+      </c>
+      <c r="F100" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+      <c r="L100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="C101">
+        <v>9027</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>9027</v>
+      </c>
+      <c r="F101" s="1">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>43</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101">
+        <v>19</v>
+      </c>
+      <c r="L101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="6">
+        <v>105000000</v>
+      </c>
+      <c r="C102">
+        <v>9016</v>
+      </c>
+      <c r="D102" s="1">
+        <v>200</v>
+      </c>
+      <c r="E102">
+        <v>9016</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="6">
+        <v>110000000</v>
+      </c>
+      <c r="C103">
+        <v>9016</v>
+      </c>
+      <c r="D103" s="1">
+        <v>200</v>
+      </c>
+      <c r="E103">
+        <v>9016</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103">
+        <v>21</v>
+      </c>
+      <c r="L103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="6">
+        <v>115000000</v>
+      </c>
+      <c r="C104">
+        <v>9016</v>
+      </c>
+      <c r="D104" s="1">
+        <v>200</v>
+      </c>
+      <c r="E104">
+        <v>9016</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K104">
+        <v>22</v>
+      </c>
+      <c r="L104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6">
+        <v>120000000</v>
+      </c>
+      <c r="C105">
+        <v>9016</v>
+      </c>
+      <c r="D105" s="1">
+        <v>200</v>
+      </c>
+      <c r="E105">
+        <v>9016</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105">
+        <v>23</v>
+      </c>
+      <c r="L105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="6">
+        <v>125000000</v>
+      </c>
+      <c r="C106">
+        <v>9016</v>
+      </c>
+      <c r="D106" s="1">
+        <v>200</v>
+      </c>
+      <c r="E106">
+        <v>9016</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K106">
+        <v>24</v>
+      </c>
+      <c r="L106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="6">
+        <v>130000000</v>
+      </c>
+      <c r="C107">
+        <v>9016</v>
+      </c>
+      <c r="D107" s="1">
+        <v>200</v>
+      </c>
+      <c r="E107">
+        <v>9016</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107">
+        <v>25</v>
+      </c>
+      <c r="L107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="6">
+        <v>135000000</v>
+      </c>
+      <c r="C108">
+        <v>9016</v>
+      </c>
+      <c r="D108" s="1">
+        <v>200</v>
+      </c>
+      <c r="E108">
+        <v>9016</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108">
+        <v>26</v>
+      </c>
+      <c r="L108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="6">
+        <v>140000000</v>
+      </c>
+      <c r="C109">
+        <v>9016</v>
+      </c>
+      <c r="D109" s="1">
+        <v>200</v>
+      </c>
+      <c r="E109">
+        <v>9016</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="6">
+        <v>145000000</v>
+      </c>
+      <c r="C110">
+        <v>9016</v>
+      </c>
+      <c r="D110" s="1">
+        <v>200</v>
+      </c>
+      <c r="E110">
+        <v>9016</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110">
+        <v>28</v>
+      </c>
+      <c r="L110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="C111">
+        <v>9017</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>9017</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111">
+        <v>29</v>
+      </c>
+      <c r="L111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="6">
+        <v>155000000</v>
+      </c>
+      <c r="C112">
+        <v>9026</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E112">
+        <v>9026</v>
+      </c>
+      <c r="F112" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112">
+        <v>30</v>
+      </c>
+      <c r="L112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="6">
+        <v>160000000</v>
+      </c>
+      <c r="C113">
+        <v>9026</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E113">
+        <v>9026</v>
+      </c>
+      <c r="F113" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113">
+        <v>31</v>
+      </c>
+      <c r="L113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="6">
+        <v>165000000</v>
+      </c>
+      <c r="C114">
+        <v>9026</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E114">
+        <v>9026</v>
+      </c>
+      <c r="F114" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114">
+        <v>32</v>
+      </c>
+      <c r="L114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="6">
+        <v>170000000</v>
+      </c>
+      <c r="C115">
+        <v>9026</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E115">
+        <v>9026</v>
+      </c>
+      <c r="F115" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115">
+        <v>33</v>
+      </c>
+      <c r="L115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="6">
+        <v>175000000</v>
+      </c>
+      <c r="C116">
+        <v>9026</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E116">
+        <v>9026</v>
+      </c>
+      <c r="F116" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116">
+        <v>34</v>
+      </c>
+      <c r="L116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="6">
+        <v>180000000</v>
+      </c>
+      <c r="C117">
+        <v>9026</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E117">
+        <v>9026</v>
+      </c>
+      <c r="F117" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G117" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117">
+        <v>35</v>
+      </c>
+      <c r="L117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="6">
+        <v>185000000</v>
+      </c>
+      <c r="C118">
+        <v>9026</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E118">
+        <v>9026</v>
+      </c>
+      <c r="F118" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118">
+        <v>36</v>
+      </c>
+      <c r="L118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="6">
+        <v>190000000</v>
+      </c>
+      <c r="C119">
+        <v>9026</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E119">
+        <v>9026</v>
+      </c>
+      <c r="F119" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119">
+        <v>37</v>
+      </c>
+      <c r="L119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="6">
+        <v>195000000</v>
+      </c>
+      <c r="C120">
+        <v>9026</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E120">
+        <v>9026</v>
+      </c>
+      <c r="F120" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120">
+        <v>38</v>
+      </c>
+      <c r="L120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="C121">
+        <v>9027</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>9027</v>
+      </c>
+      <c r="F121" s="1">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121">
+        <v>39</v>
+      </c>
+      <c r="L121" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3777,13 +7085,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F40FC7F-F340-46C1-8BD2-9A18E506EF15}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
@@ -3791,19 +7099,19 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +7128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>7701</v>
       </c>
@@ -3840,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>7702</v>
       </c>
@@ -3860,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>9044</v>
       </c>
@@ -3880,7 +7188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>9043</v>
       </c>
@@ -3900,29 +7208,29 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -3939,7 +7247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7703</v>
       </c>
@@ -3959,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7704</v>
       </c>
@@ -3979,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>9033</v>
       </c>
@@ -3999,7 +7307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9032</v>
       </c>
@@ -4019,12 +7327,163 @@
         <v>10500000</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>7705</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B22,[1]PetPass!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B22,[1]PetPass!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F27" si="0">SUM(D22:E22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>7706</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B23,[1]PetPass!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B23,[1]PetPass!F:F)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>9016</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B24,[1]PetPass!D:D)</f>
+        <v>3400</v>
+      </c>
+      <c r="E24" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B24,[1]PetPass!F:F)</f>
+        <v>17000</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>9017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B25,[1]PetPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B25,[1]PetPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>9026</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B26,[1]PetPass!D:D)</f>
+        <v>54000</v>
+      </c>
+      <c r="E26" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B26,[1]PetPass!F:F)</f>
+        <v>270000</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>9027</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="4">
+        <f>SUMIF([1]PetPass!C:C,'[1]보상 측정'!B27,[1]PetPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <f>SUMIF([1]PetPass!E:E,'[1]보상 측정'!B27,[1]PetPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
